--- a/data/trans_dic/P23_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P23_R2-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>31,86; 40,84</t>
+          <t>32,24; 40,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>25,6; 34,58</t>
+          <t>25,95; 34,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>29,55; 38,59</t>
+          <t>29,51; 38,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,99; 31,03</t>
+          <t>16,42; 31,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>29,3; 37,64</t>
+          <t>29,36; 38,48</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>28,4; 37,41</t>
+          <t>28,87; 38,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>22,4; 31,26</t>
+          <t>22,62; 30,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>14,64; 26,82</t>
+          <t>14,55; 26,06</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>31,63; 38,05</t>
+          <t>31,94; 38,01</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>28,62; 34,92</t>
+          <t>28,32; 34,76</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>27,29; 33,91</t>
+          <t>27,48; 34,07</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>16,91; 26,61</t>
+          <t>17,38; 26,93</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>45,34; 52,8</t>
+          <t>45,83; 53,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>40,13; 47,76</t>
+          <t>40,27; 47,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>39,77; 48,14</t>
+          <t>40,02; 48,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>29,9; 41,61</t>
+          <t>28,75; 40,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>30,98; 38,94</t>
+          <t>31,37; 38,83</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>36,23; 44,3</t>
+          <t>36,67; 44,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>33,92; 42,17</t>
+          <t>33,58; 41,49</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,18; 28,01</t>
+          <t>14,12; 27,93</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>39,86; 45,38</t>
+          <t>40,08; 45,64</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>39,23; 44,7</t>
+          <t>39,41; 45,03</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>38,13; 43,77</t>
+          <t>38,18; 43,96</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>20,98; 31,92</t>
+          <t>21,52; 32,11</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>48,01; 56,69</t>
+          <t>48,23; 56,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>41,95; 49,51</t>
+          <t>42,14; 49,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>36,28; 43,89</t>
+          <t>36,18; 43,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>23,8; 31,81</t>
+          <t>23,62; 31,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>33,5; 40,86</t>
+          <t>33,57; 40,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>30,38; 37,78</t>
+          <t>30,77; 37,93</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>29,87; 37,21</t>
+          <t>30,07; 37,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>21,74; 28,1</t>
+          <t>22,09; 28,29</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>41,52; 47,01</t>
+          <t>41,68; 47,03</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>37,48; 42,67</t>
+          <t>37,34; 42,63</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>33,92; 39,43</t>
+          <t>34,06; 39,6</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>23,95; 28,9</t>
+          <t>23,96; 28,86</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>39,61; 48,4</t>
+          <t>39,64; 48,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>41,18; 49,52</t>
+          <t>41,1; 50,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>38,66; 47,22</t>
+          <t>39,19; 47,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,27; 30,25</t>
+          <t>9,01; 30,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>23,75; 31,8</t>
+          <t>23,65; 31,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>34,45; 42,7</t>
+          <t>34,99; 43,3</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>31,72; 39,28</t>
+          <t>31,78; 39,59</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,36; 25,62</t>
+          <t>19,06; 25,55</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>32,8; 38,78</t>
+          <t>32,85; 39,06</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>39,05; 44,89</t>
+          <t>39,11; 45,19</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>36,5; 42,11</t>
+          <t>36,66; 42,58</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,77; 26,46</t>
+          <t>12,1; 26,24</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>28,3; 37,71</t>
+          <t>28,3; 38,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>31,66; 41,51</t>
+          <t>31,64; 41,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>26,19; 35,2</t>
+          <t>26,37; 35,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>27,54; 35,21</t>
+          <t>27,32; 34,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,38; 15,17</t>
+          <t>8,88; 15,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,88; 19,09</t>
+          <t>11,78; 19,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>19,06; 26,96</t>
+          <t>19,35; 27,46</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>19,84; 24,98</t>
+          <t>19,54; 24,78</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>19,42; 25,2</t>
+          <t>19,16; 25,35</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>22,31; 28,69</t>
+          <t>22,52; 28,62</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>23,8; 29,92</t>
+          <t>23,87; 30,05</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>24,52; 29,31</t>
+          <t>24,64; 29,19</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>14,17; 22,51</t>
+          <t>14,33; 22,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>12,44; 21,46</t>
+          <t>12,12; 21,62</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>13,22; 21,68</t>
+          <t>13,64; 21,7</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>15,52; 22,29</t>
+          <t>15,55; 22,4</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,82; 3,83</t>
+          <t>0,82; 4,12</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,21; 8,64</t>
+          <t>3,25; 8,37</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,51; 10,98</t>
+          <t>5,41; 11,49</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,2; 12,83</t>
+          <t>3,25; 12,95</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>7,47; 12,03</t>
+          <t>7,51; 11,82</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>8,44; 13,45</t>
+          <t>8,16; 13,35</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>10,16; 15,46</t>
+          <t>10,03; 14,94</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>5,68; 15,82</t>
+          <t>6,81; 15,86</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,95; 15,23</t>
+          <t>7,15; 15,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,32; 15,45</t>
+          <t>7,06; 15,5</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,56; 13,05</t>
+          <t>6,4; 12,9</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,51; 9,4</t>
+          <t>4,4; 9,57</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,34; 3,36</t>
+          <t>0,34; 3,2</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,26; 3,06</t>
+          <t>0,26; 2,89</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,68; 4,3</t>
+          <t>0,69; 4,07</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,78; 2,49</t>
+          <t>0,77; 2,43</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,45; 7,3</t>
+          <t>3,38; 7,08</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>3,22; 7,12</t>
+          <t>3,29; 7,12</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>3,43; 6,87</t>
+          <t>3,23; 6,67</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>2,61; 4,89</t>
+          <t>2,65; 4,84</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>38,16; 41,56</t>
+          <t>38,0; 41,57</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>35,25; 38,67</t>
+          <t>35,21; 38,77</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>33,22; 36,49</t>
+          <t>32,99; 36,39</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>18,98; 26,68</t>
+          <t>19,25; 26,8</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>23,14; 26,14</t>
+          <t>23,23; 26,21</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>25,35; 28,52</t>
+          <t>25,37; 28,5</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>24,58; 27,76</t>
+          <t>24,6; 27,56</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>14,52; 19,6</t>
+          <t>14,36; 19,5</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>30,98; 33,19</t>
+          <t>30,89; 33,31</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>30,66; 33,0</t>
+          <t>30,6; 32,99</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>29,14; 31,42</t>
+          <t>29,07; 31,37</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>17,86; 22,46</t>
+          <t>18,1; 22,57</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que fuma tabaco diariamente (2007/2011/2016/2023)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>177885</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>137181</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>142302</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>91625</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>155760</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>141354</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>105447</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>61674</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>333645</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>278535</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>247748</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>153298</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>158961; 201892</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>117867; 158445</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>123790; 162101</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>65669; 124562</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>137242; 179899</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>123929; 164203</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>89523; 122649</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>45191; 80968</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>306823; 365086</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>250155; 307097</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>224044; 277723</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>123500; 191385</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>351</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>562</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>526</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>468</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>362706</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>301537</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>261082</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>147029</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>218410</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>244610</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>213031</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>114930</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>581116</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>546147</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>474113</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>261959</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>337101; 391362</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>276674; 327411</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>236312; 285444</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>121781; 172866</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>196209; 242893</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>223768; 268793</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>189244; 233821</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>72213; 142867</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>545432; 621129</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>511346; 584180</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>440642; 507331</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>201184; 300261</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>566</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>528</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>477</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>348</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>333216</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>312480</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>266024</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>149647</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>255878</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>242610</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>220544</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>135854</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>589094</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>555090</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>486567</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>285502</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>308012; 359030</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>286871; 336858</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>241681; 293841</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>126658; 169151</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>231565; 282635</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>218414; 269257</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>198589; 244723</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>119834; 153475</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>553652; 624690</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>519275; 592873</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>452492; 526036</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>258470; 311262</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>349</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>457</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>227846</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>277749</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>277798</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>184758</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>141648</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>239387</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>230829</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>162735</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>369494</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>517136</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>508627</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>347493</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>205801; 252297</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>252629; 308003</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>253205; 304927</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>79932; 266663</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>121958; 162220</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>215624; 266833</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>205606; 256156</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>135644; 181768</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>339881; 404180</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>481340; 556150</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>474020; 550508</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>193424; 419401</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>127783</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>155383</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>146836</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>173978</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>46888</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>67829</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>114087</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>121680</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>174671</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>223212</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>260924</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>295657</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>109441; 147496</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>135866; 177455</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>126011; 169646</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>153041; 194118</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>35857; 61454</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>52747; 85471</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>95907; 136149</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>107073; 135744</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>151494; 200470</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>197585; 251066</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>232382; 292545</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>273028; 323486</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>53173</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>51254</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>58232</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>68443</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>6585</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>19003</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>30027</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>48780</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>59758</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>70257</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>88259</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>117223</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>41938; 66669</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>37554; 66987</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>45592; 72535</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>57240; 82457</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>2826; 14123</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>11513; 29630</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>20451; 43407</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>19774; 78799</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>47755; 75126</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>54166; 88616</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>71407; 106354</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>66530; 154890</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>22654</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>27052</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>23863</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>19031</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>4635</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>4029</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>8014</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>6294</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>27288</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>31080</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>31877</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>25325</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>15017; 32851</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>17630; 38738</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>16386; 33050</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>12443; 27060</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>1130; 10701</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>1009; 11236</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>2770; 16241</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>3290; 10352</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>18368; 38526</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>21035; 45472</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>21137; 43701</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>18777; 34277</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>1272</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>1185</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>1094</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>811</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>814</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>881</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>2086</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>2066</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>1763</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>1305261</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>1262636</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>1176137</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>834510</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>829803</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>958821</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>921979</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>651946</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>2135065</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>2221457</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>2098116</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>1486457</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>1244842; 1361477</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>1206177; 1328041</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>1119083; 1234664</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>665502; 926490</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>785050; 885840</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>902400; 1013655</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>870508; 975209</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>525297; 713537</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>2055957; 2216426</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>2136501; 2303716</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>2015020; 2174439</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>1287875; 1605712</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P23_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P23_R2-Edad-trans_dic.xlsx
@@ -535,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que fuma tabaco diariamente (2007/2011/2016/2023)</t>
+          <t>Población que fuma tabaco actualmente, de forma diaria o puntual</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1826,7 +1826,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que fuma tabaco diariamente (2007/2011/2016/2023)</t>
+          <t>Población que fuma tabaco actualmente, de forma diaria o puntual</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
